--- a/config_5.18/rank_server.xlsx
+++ b/config_5.18/rank_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="727"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="727" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2529,9 +2529,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -2573,29 +2573,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2604,22 +2581,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2633,28 +2612,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2671,22 +2634,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2694,9 +2641,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2709,11 +2702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2722,12 +2710,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2778,7 +2778,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2790,7 +2844,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,7 +2922,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,139 +2952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,11 +2981,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3007,41 +3046,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3060,34 +3078,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3096,138 +3096,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3307,9 +3307,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -3677,10 +3674,10 @@
   <sheetPr/>
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3708,7 +3705,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.1" customHeight="1" spans="1:21">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3764,16 +3761,16 @@
       <c r="C2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <v>1567467000</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="39">
         <v>1568649599</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="30">
@@ -3785,8 +3782,8 @@
       <c r="L2" s="30">
         <v>1</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="41"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="40"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:18">
       <c r="A3" s="28">
@@ -3795,10 +3792,10 @@
       <c r="B3" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="30">
@@ -3807,10 +3804,10 @@
       <c r="F3" s="30">
         <v>1573487999</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="30">
@@ -3825,8 +3822,8 @@
       <c r="L3" s="30">
         <v>2</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="41"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="1:18">
       <c r="A4" s="28">
@@ -3844,10 +3841,10 @@
       <c r="F4" s="30">
         <v>1570463999</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="40" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="30">
@@ -3859,8 +3856,8 @@
       <c r="L4" s="30">
         <v>3</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="41"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="1:18">
       <c r="A5" s="28">
@@ -3881,10 +3878,10 @@
       <c r="F5" s="30">
         <v>1571068799</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="30">
@@ -3896,8 +3893,8 @@
       <c r="L5" s="30">
         <v>4</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="41"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" ht="43.5" customHeight="1" spans="1:18">
       <c r="A6" s="28">
@@ -3906,22 +3903,22 @@
       <c r="B6" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>1571700600</v>
       </c>
       <c r="F6" s="30">
         <v>1572278399</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="30">
@@ -3933,8 +3930,8 @@
       <c r="L6" s="30">
         <v>5</v>
       </c>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="41"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="40"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="28">
@@ -4153,10 +4150,10 @@
       <c r="B13" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="30">
@@ -4188,10 +4185,10 @@
       <c r="B14" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="30">
@@ -4238,7 +4235,7 @@
       <c r="G15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="28">
@@ -4258,10 +4255,10 @@
       <c r="B16" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="28">
@@ -4270,10 +4267,10 @@
       <c r="F16" s="28">
         <v>2555555555</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="28">
@@ -4293,10 +4290,10 @@
       <c r="B17" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="28">
@@ -4305,10 +4302,10 @@
       <c r="F17" s="28">
         <v>2555555555</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="28">
@@ -4328,10 +4325,10 @@
       <c r="B18" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="28">
@@ -4340,10 +4337,10 @@
       <c r="F18" s="28">
         <v>2555555555</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="28">
@@ -4363,10 +4360,10 @@
       <c r="B19" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="28">
@@ -4375,10 +4372,10 @@
       <c r="F19" s="28">
         <v>2555555555</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="28">
@@ -4398,10 +4395,10 @@
       <c r="B20" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="28">
@@ -4410,10 +4407,10 @@
       <c r="F20" s="28">
         <v>2555555555</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="28">
@@ -4468,10 +4465,10 @@
       <c r="B22" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="28">
@@ -4640,10 +4637,10 @@
       <c r="B27" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="28">
@@ -4678,7 +4675,7 @@
       <c r="C28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="28">
@@ -4713,7 +4710,7 @@
       <c r="C29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="28">
@@ -4748,7 +4745,7 @@
       <c r="C30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="28">
@@ -4783,7 +4780,7 @@
       <c r="C31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="33" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="28">
@@ -4815,7 +4812,7 @@
       <c r="B32" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="28" t="s">
@@ -4827,7 +4824,7 @@
       <c r="F32" s="28">
         <v>1613404799</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H32" s="28" t="s">
@@ -4853,7 +4850,7 @@
       <c r="C33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="33" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="28">
@@ -4888,7 +4885,7 @@
       <c r="C34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="28">
@@ -4923,7 +4920,7 @@
       <c r="C35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="28">
@@ -4955,10 +4952,10 @@
       <c r="B36" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>82</v>
       </c>
       <c r="E36" s="28">
@@ -4990,7 +4987,7 @@
       <c r="B37" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>83</v>
       </c>
       <c r="D37" s="28" t="s">
@@ -5002,7 +4999,7 @@
       <c r="F37" s="28">
         <v>1615823999</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="28" t="s">
@@ -5025,10 +5022,10 @@
       <c r="B38" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E38" s="28">
@@ -5060,7 +5057,7 @@
       <c r="B39" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="28" t="s">
@@ -5072,7 +5069,7 @@
       <c r="F39" s="28">
         <v>1616428799</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H39" s="28" t="s">
@@ -5095,10 +5092,10 @@
       <c r="B40" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="33" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="28">
@@ -5130,7 +5127,7 @@
       <c r="B41" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -5142,7 +5139,7 @@
       <c r="F41" s="28">
         <v>1617033599</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H41" s="28" t="s">
@@ -5165,10 +5162,10 @@
       <c r="B42" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="28">
@@ -5244,7 +5241,7 @@
       <c r="F44" s="28">
         <v>1617638399</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="28" t="s">
@@ -5299,7 +5296,7 @@
       <c r="B46" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="33" t="s">
         <v>97</v>
       </c>
       <c r="D46" s="28" t="s">
@@ -5311,7 +5308,7 @@
       <c r="F46" s="28">
         <v>1618243199</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H46" s="28" t="s">
@@ -5334,10 +5331,10 @@
       <c r="B47" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E47" s="28">
@@ -5346,10 +5343,10 @@
       <c r="F47" s="28">
         <v>2555555555</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="28">
@@ -5362,38 +5359,38 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" s="38" customFormat="1" spans="1:12">
-      <c r="A48" s="38">
+    <row r="48" s="37" customFormat="1" spans="1:12">
+      <c r="A48" s="37">
         <v>47</v>
       </c>
-      <c r="B48" s="38" t="b">
+      <c r="B48" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="37">
         <v>1618272000</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <v>1618847999</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="38" t="s">
+      <c r="H48" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="37">
         <v>45</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48" s="37">
         <v>47</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="37">
         <v>45</v>
       </c>
     </row>
@@ -5404,7 +5401,7 @@
       <c r="B49" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>102</v>
       </c>
       <c r="D49" s="28" t="s">
@@ -5416,7 +5413,7 @@
       <c r="F49" s="28">
         <v>2555555555</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="28" t="s">
@@ -5486,10 +5483,10 @@
       <c r="F51" s="30">
         <v>1621267199</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="38" t="s">
+      <c r="H51" s="37" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="30">
@@ -5521,13 +5518,12 @@
       <c r="F52" s="30">
         <v>1621871999</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="38" t="s">
+      <c r="H52" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="30"/>
       <c r="K52" s="30">
         <v>51</v>
       </c>
@@ -6107,7 +6103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" s="32" customFormat="1" spans="1:8">
+    <row r="41" s="31" customFormat="1" spans="1:8">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6120,12 +6116,12 @@
       <c r="D41" s="7">
         <v>22</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" s="32" customFormat="1" spans="1:8">
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" s="31" customFormat="1" spans="1:8">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6138,10 +6134,10 @@
       <c r="D42" s="7">
         <v>22</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4">
@@ -6610,7 +6606,7 @@
       <c r="B73" s="7">
         <v>36</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="34" t="s">
         <v>132</v>
       </c>
       <c r="D73" s="7">
@@ -6624,7 +6620,7 @@
       <c r="B74" s="7">
         <v>36</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D74" s="7">
@@ -6638,7 +6634,7 @@
       <c r="B75" s="7">
         <v>36</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D75" s="7">
@@ -6652,7 +6648,7 @@
       <c r="B76" s="7">
         <v>36</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D76" s="7">
@@ -6694,7 +6690,7 @@
       <c r="B79" s="7">
         <v>38</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="34" t="s">
         <v>132</v>
       </c>
       <c r="D79" s="7">
@@ -6708,7 +6704,7 @@
       <c r="B80" s="7">
         <v>38</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D80" s="7">
@@ -6722,7 +6718,7 @@
       <c r="B81" s="7">
         <v>38</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D81" s="7">
@@ -6736,7 +6732,7 @@
       <c r="B82" s="7">
         <v>38</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D82" s="7">
@@ -6786,7 +6782,7 @@
       <c r="B85" s="7">
         <v>40</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="34" t="s">
         <v>132</v>
       </c>
       <c r="D85" s="7">
@@ -6804,7 +6800,7 @@
       <c r="B86" s="7">
         <v>40</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D86" s="7">
@@ -6822,7 +6818,7 @@
       <c r="B87" s="7">
         <v>40</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D87" s="7">
@@ -6840,7 +6836,7 @@
       <c r="B88" s="7">
         <v>40</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D88" s="7">
@@ -6894,7 +6890,7 @@
       <c r="B91" s="7">
         <v>42</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="34" t="s">
         <v>132</v>
       </c>
       <c r="D91" s="7">
@@ -6912,7 +6908,7 @@
       <c r="B92" s="7">
         <v>42</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D92" s="7">
@@ -6930,7 +6926,7 @@
       <c r="B93" s="7">
         <v>42</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D93" s="7">
@@ -6948,7 +6944,7 @@
       <c r="B94" s="7">
         <v>42</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D94" s="7">
@@ -6966,7 +6962,7 @@
       <c r="B95" s="7">
         <v>43</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="34" t="s">
         <v>132</v>
       </c>
       <c r="D95" s="7">
@@ -6984,7 +6980,7 @@
       <c r="B96" s="7">
         <v>43</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D96" s="7">
@@ -7002,7 +6998,7 @@
       <c r="B97" s="7">
         <v>43</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D97" s="7">
@@ -7020,7 +7016,7 @@
       <c r="B98" s="7">
         <v>43</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D98" s="7">
@@ -7038,7 +7034,7 @@
       <c r="B99" s="7">
         <v>44</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D99" s="7">
@@ -7056,7 +7052,7 @@
       <c r="B100" s="7">
         <v>44</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="34" t="s">
         <v>148</v>
       </c>
       <c r="D100" s="7">
@@ -7074,7 +7070,7 @@
       <c r="B101" s="7">
         <v>44</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="34" t="s">
         <v>149</v>
       </c>
       <c r="D101" s="7">
@@ -7092,7 +7088,7 @@
       <c r="B102" s="7">
         <v>44</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="34" t="s">
         <v>150</v>
       </c>
       <c r="D102" s="7">
@@ -7110,7 +7106,7 @@
       <c r="B103" s="7">
         <v>44</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="34" t="s">
         <v>151</v>
       </c>
       <c r="D103" s="7">
@@ -7128,7 +7124,7 @@
       <c r="B104" s="7">
         <v>44</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="34" t="s">
         <v>152</v>
       </c>
       <c r="D104" s="7">
@@ -7146,7 +7142,7 @@
       <c r="B105" s="7">
         <v>44</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="35" t="s">
         <v>153</v>
       </c>
       <c r="D105" s="7">
@@ -7164,7 +7160,7 @@
       <c r="B106" s="7">
         <v>44</v>
       </c>
-      <c r="C106" s="37" t="s">
+      <c r="C106" s="36" t="s">
         <v>154</v>
       </c>
       <c r="D106" s="7">
@@ -7182,7 +7178,7 @@
       <c r="B107" s="7">
         <v>44</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="35" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="7">
@@ -7214,7 +7210,7 @@
       <c r="B109" s="7">
         <v>44</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="35" t="s">
         <v>157</v>
       </c>
       <c r="D109" s="7">
@@ -7272,7 +7268,7 @@
       <c r="B112" s="4">
         <v>46</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="34" t="s">
         <v>132</v>
       </c>
       <c r="D112" s="4">
@@ -7286,7 +7282,7 @@
       <c r="B113" s="4">
         <v>46</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D113" s="4">
@@ -7300,7 +7296,7 @@
       <c r="B114" s="4">
         <v>46</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D114" s="4">
@@ -7314,7 +7310,7 @@
       <c r="B115" s="4">
         <v>46</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="4">
@@ -7356,7 +7352,7 @@
       <c r="B118" s="4">
         <v>48</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D118" s="4">
@@ -7370,7 +7366,7 @@
       <c r="B119" s="4">
         <v>48</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="34" t="s">
         <v>148</v>
       </c>
       <c r="D119" s="4">
@@ -7384,7 +7380,7 @@
       <c r="B120" s="4">
         <v>48</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="34" t="s">
         <v>149</v>
       </c>
       <c r="D120" s="4">
@@ -7398,7 +7394,7 @@
       <c r="B121" s="4">
         <v>48</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="34" t="s">
         <v>150</v>
       </c>
       <c r="D121" s="4">
@@ -7412,7 +7408,7 @@
       <c r="B122" s="4">
         <v>48</v>
       </c>
-      <c r="C122" s="35" t="s">
+      <c r="C122" s="34" t="s">
         <v>151</v>
       </c>
       <c r="D122" s="4">
@@ -7426,7 +7422,7 @@
       <c r="B123" s="4">
         <v>48</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="34" t="s">
         <v>152</v>
       </c>
       <c r="D123" s="4">
@@ -7440,7 +7436,7 @@
       <c r="B124" s="4">
         <v>48</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="35" t="s">
         <v>153</v>
       </c>
       <c r="D124" s="4">
@@ -7454,7 +7450,7 @@
       <c r="B125" s="4">
         <v>48</v>
       </c>
-      <c r="C125" s="37" t="s">
+      <c r="C125" s="36" t="s">
         <v>154</v>
       </c>
       <c r="D125" s="4">
@@ -7468,7 +7464,7 @@
       <c r="B126" s="4">
         <v>48</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="35" t="s">
         <v>155</v>
       </c>
       <c r="D126" s="4">
@@ -7496,7 +7492,7 @@
       <c r="B128" s="4">
         <v>48</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="35" t="s">
         <v>157</v>
       </c>
       <c r="D128" s="4">
@@ -7954,7 +7950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" s="32" customFormat="1" spans="1:5">
+    <row r="26" s="31" customFormat="1" spans="1:5">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -7998,7 +7994,7 @@
       <c r="C28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>181</v>
       </c>
       <c r="E28" s="7">
@@ -8032,7 +8028,7 @@
       <c r="C30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>182</v>
       </c>
       <c r="E30" s="7">
@@ -8066,7 +8062,7 @@
       <c r="C32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>183</v>
       </c>
       <c r="E32" s="7">
@@ -8100,7 +8096,7 @@
       <c r="C34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>184</v>
       </c>
       <c r="E34" s="7">
@@ -8966,10 +8962,10 @@
   <sheetPr/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9443,26 +9439,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" s="32" customFormat="1" spans="1:7">
-      <c r="A21" s="33">
+    <row r="21" s="31" customFormat="1" spans="1:7">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
-        <v>1</v>
-      </c>
-      <c r="C21" s="33">
+      <c r="B21" s="32">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32">
         <v>20</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="32">
         <v>100</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <v>20</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="32">
         <v>180</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <v>10</v>
       </c>
     </row>
@@ -10139,7 +10135,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="C51" s="4">
         <v>20</v>
@@ -11545,7 +11541,7 @@
       <c r="B54" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="29">
         <v>1621871999</v>
       </c>
     </row>
@@ -11616,7 +11612,7 @@
       <c r="E2" s="6">
         <v>5000000000</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>223</v>
       </c>
       <c r="G2" s="16" t="s">
